--- a/Timesheets/2019-05-12.xlsx
+++ b/Timesheets/2019-05-12.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdemolde\Documents\GitHub\Coleman-Nordic-Butterfly\Timesheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33B3FD9-FEB0-4554-AFB4-95DA802C7D43}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EA4A32-91DF-4CA4-90F0-FA01670A4632}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -126,10 +126,10 @@
     <t xml:space="preserve"> expended during the period reported.</t>
   </si>
   <si>
-    <t>5/12/19-5/11/19</t>
-  </si>
-  <si>
     <t>5/25/19</t>
+  </si>
+  <si>
+    <t>5/12/19-5/25/19</t>
   </si>
 </sst>
 </file>
@@ -1620,7 +1620,7 @@
   <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="12.75"/>
@@ -1720,7 +1720,7 @@
     </row>
     <row r="6" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="93" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="93"/>
       <c r="D6" s="18"/>
@@ -1929,13 +1929,17 @@
       <c r="M12" s="38">
         <v>2.25</v>
       </c>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
+      <c r="N12" s="38">
+        <v>4.5</v>
+      </c>
+      <c r="O12" s="38">
+        <v>2.5</v>
+      </c>
       <c r="P12" s="38"/>
       <c r="Q12" s="39"/>
       <c r="R12" s="55">
         <f t="shared" ref="R12:R21" si="0">SUM(D12:Q12)</f>
-        <v>10.75</v>
+        <v>17.75</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="33" customHeight="1" thickBot="1">
@@ -2201,11 +2205,11 @@
       </c>
       <c r="N22" s="60">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="O22" s="69">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="P22" s="69">
         <f t="shared" si="1"/>
@@ -2217,7 +2221,7 @@
       </c>
       <c r="R22" s="58">
         <f>SUM(D22:Q22)</f>
-        <v>10.75</v>
+        <v>17.75</v>
       </c>
     </row>
     <row r="23" spans="2:18" ht="29.1" customHeight="1">
@@ -2225,7 +2229,7 @@
         <v>10</v>
       </c>
       <c r="F23" s="78" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R23" s="3"/>
     </row>
